--- a/Documentacao/BacklogBurndown-Grupo08(Umitrix).xlsx
+++ b/Documentacao/BacklogBurndown-Grupo08(Umitrix).xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supor\Documents\Faculdade\PI\Projeto-SPTech\UMITRIX\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Repositório-UMITRIX\UMITRIX\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9816"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Backlog S-2" sheetId="2" r:id="rId2"/>
-    <sheet name="Gráfico Burndown" sheetId="3" r:id="rId3"/>
+    <sheet name="Gráfico Burndown" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$F$4:$N$51</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="134">
   <si>
     <t>Requisito</t>
   </si>
@@ -183,12 +182,6 @@
     <t>Desenvolver o arquivo da seção de Dashboard no site</t>
   </si>
   <si>
-    <t xml:space="preserve">Site Estático Cadastro e Login </t>
-  </si>
-  <si>
-    <t>Desenvolver o arquivo da seção de cadastro ou o  log-in dos donos de negócio</t>
-  </si>
-  <si>
     <t>Realizar um diagrama que mostra o conjunto de arquiteturas que serão utilizadas no desenvolvimento e funcionamento do projeto (dados, segurança, monitoramento, desempenho)</t>
   </si>
   <si>
@@ -228,9 +221,6 @@
     <t>Instalar MYSQL na VMLinux e passar os dados do Arduino no MySQL</t>
   </si>
   <si>
-    <t>Utilizar o WorkBench na Máquina Virtual para ver os dados que serão transferidos pelo Arduino</t>
-  </si>
-  <si>
     <t>Validar a solução técnica</t>
   </si>
   <si>
@@ -243,15 +233,6 @@
     <t>Tamanho</t>
   </si>
   <si>
-    <t>Projeto atualizado no GitHub</t>
-  </si>
-  <si>
-    <t>Utilizar o GitHub para subir as mudanças e atualização de documentação do projeto</t>
-  </si>
-  <si>
-    <t>Modelagem Lógica do Projeto v1</t>
-  </si>
-  <si>
     <t>Tam#</t>
   </si>
   <si>
@@ -292,9 +273,6 @@
   </si>
   <si>
     <t>Projeto Umitrix - Backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Projeto Umitrix - Backlog Sprint 2</t>
   </si>
   <si>
     <t>P</t>
@@ -469,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,20 +529,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="0"/>
-      <name val="Segoe UI Light"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
@@ -598,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -639,144 +603,15 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -824,99 +659,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color theme="0"/>
@@ -973,27 +735,6 @@
       <font>
         <color rgb="FF00B0F0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE5454"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1364,7 +1105,7 @@
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,7 +1906,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2504,47 +2251,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:U152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H3" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="57.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="141.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.3984375" style="3" customWidth="1"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="12.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.9140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="141.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.4140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.4140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.69921875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="25.5" style="3" customWidth="1"/>
-    <col min="15" max="19" width="8.69921875" style="1"/>
-    <col min="20" max="20" width="21.09765625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.8984375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.69921875" style="1"/>
+    <col min="11" max="11" width="21.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="25.4140625" style="3" customWidth="1"/>
+    <col min="15" max="19" width="8.6640625" style="1"/>
+    <col min="20" max="20" width="21.08203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.9140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="6:21" x14ac:dyDescent="0.45">
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="6:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F2" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-    </row>
-    <row r="3" spans="6:21" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="6:21" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="6:21" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2554,43 +2301,43 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="6:21" s="2" customFormat="1" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="31" t="s">
+    <row r="4" spans="6:21" s="2" customFormat="1" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="U4" s="34">
+      <c r="M4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="20">
         <f>SUM(U5:U7)</f>
         <v>531</v>
       </c>
     </row>
-    <row r="5" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
@@ -2601,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J5" s="12">
         <v>5</v>
@@ -2610,23 +2357,23 @@
         <v>2</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5" s="35">
+        <v>89</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="21">
         <f>SUMIF(L5:L51,"SP1",J5:J51)</f>
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -2637,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J6" s="12">
         <v>8</v>
@@ -2646,23 +2393,23 @@
         <v>1</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="U6" s="35">
+      <c r="U6" s="21">
         <f>SUMIF(L5:L51,"SP2",J5:J51)</f>
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
@@ -2673,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J7" s="12">
         <v>8</v>
@@ -2682,23 +2429,23 @@
         <v>1</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="U7" s="35">
+        <v>89</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="U7" s="21">
         <f>SUMIF(L5:L51,"SP3",J5:J51)</f>
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
@@ -2709,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J8" s="12">
         <v>21</v>
@@ -2718,23 +2465,23 @@
         <v>2</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="T8" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="U8" s="34">
+        <v>90</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="U8" s="20">
         <f>AVERAGE(U5:U7)</f>
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:21" s="7" customFormat="1" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
@@ -2745,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J9" s="12">
         <v>3</v>
@@ -2754,16 +2501,16 @@
         <v>2</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
@@ -2774,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J10" s="12">
         <v>21</v>
@@ -2783,23 +2530,23 @@
         <v>1</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="U10" s="12">
         <f>SUMIF(M5:M23,"OK",J5:J23)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11" s="9" t="s">
         <v>16</v>
       </c>
@@ -2810,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J11" s="12">
         <v>13</v>
@@ -2819,23 +2566,23 @@
         <v>3</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="U11" s="12">
         <f>SUMIF(M24:M42,"OK",J24:J42)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2846,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J12" s="12">
         <v>5</v>
@@ -2855,23 +2602,23 @@
         <v>3</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="T12" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="U12" s="34">
+        <v>92</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="U12" s="20">
         <f>SUM(U10:U11)</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="9" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J13" s="12">
         <v>21</v>
@@ -2891,16 +2638,16 @@
         <v>1</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="9" t="s">
         <v>22</v>
       </c>
@@ -2911,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J14" s="12">
         <v>8</v>
@@ -2920,23 +2667,23 @@
         <v>2</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="T14" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="U14" s="34">
+        <v>93</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="U14" s="20">
         <f>AVERAGE(U12,U8)</f>
-        <v>166.5</v>
-      </c>
-    </row>
-    <row r="15" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F15" s="9" t="s">
         <v>24</v>
       </c>
@@ -2947,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J15" s="12">
         <v>5</v>
@@ -2956,18 +2703,18 @@
         <v>3</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="6:21" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F16" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>26</v>
@@ -2976,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J16" s="12">
         <v>3</v>
@@ -2985,16 +2732,16 @@
         <v>3</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F17" s="9" t="s">
         <v>27</v>
       </c>
@@ -3005,7 +2752,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J17" s="12">
         <v>21</v>
@@ -3014,16 +2761,16 @@
         <v>3</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="9" t="s">
         <v>30</v>
       </c>
@@ -3034,7 +2781,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J18" s="12">
         <v>3</v>
@@ -3043,16 +2790,16 @@
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F19" s="9" t="s">
         <v>32</v>
       </c>
@@ -3063,7 +2810,7 @@
         <v>29</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J19" s="12">
         <v>3</v>
@@ -3072,27 +2819,27 @@
         <v>2</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F20" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J20" s="12">
         <v>13</v>
@@ -3101,18 +2848,18 @@
         <v>2</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F21" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>35</v>
@@ -3121,7 +2868,7 @@
         <v>29</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J21" s="12">
         <v>8</v>
@@ -3130,18 +2877,18 @@
         <v>3</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F22" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>36</v>
@@ -3150,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J22" s="12">
         <v>13</v>
@@ -3159,16 +2906,16 @@
         <v>1</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F23" s="9" t="s">
         <v>37</v>
       </c>
@@ -3179,7 +2926,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J23" s="12">
         <v>8</v>
@@ -3188,16 +2935,16 @@
         <v>3</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
@@ -3208,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J24" s="12">
         <v>13</v>
@@ -3217,16 +2964,16 @@
         <v>2</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="9" t="s">
         <v>41</v>
       </c>
@@ -3237,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J25" s="12">
         <v>21</v>
@@ -3246,27 +2993,27 @@
         <v>3</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="6:14" s="7" customFormat="1" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="G26" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J26" s="12">
         <v>21</v>
@@ -3275,27 +3022,27 @@
         <v>1</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J27" s="12">
         <v>5</v>
@@ -3304,27 +3051,27 @@
         <v>3</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14" s="7" customFormat="1" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14" s="7" customFormat="1" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F28" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J28" s="12">
         <v>21</v>
@@ -3333,16 +3080,16 @@
         <v>1</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14" s="7" customFormat="1" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14" s="7" customFormat="1" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" s="9" t="s">
         <v>43</v>
       </c>
@@ -3353,7 +3100,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J29" s="12">
         <v>13</v>
@@ -3362,16 +3109,16 @@
         <v>1</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F30" s="9" t="s">
         <v>45</v>
       </c>
@@ -3382,7 +3129,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J30" s="12">
         <v>13</v>
@@ -3391,27 +3138,27 @@
         <v>2</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F31" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J31" s="12">
         <v>8</v>
@@ -3420,27 +3167,27 @@
         <v>1</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F32" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J32" s="12">
         <v>8</v>
@@ -3449,27 +3196,27 @@
         <v>1</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N32" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="4:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="G33" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J33" s="12">
         <v>13</v>
@@ -3478,27 +3225,27 @@
         <v>2</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="4:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F34" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J34" s="12">
         <v>3</v>
@@ -3507,27 +3254,27 @@
         <v>1</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="4:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" s="7" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F35" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J35" s="12">
         <v>5</v>
@@ -3536,27 +3283,27 @@
         <v>2</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F36" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J36" s="12">
         <v>8</v>
@@ -3565,27 +3312,27 @@
         <v>1</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F37" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J37" s="12">
         <v>13</v>
@@ -3594,30 +3341,30 @@
         <v>2</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D38" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J38" s="12">
         <v>8</v>
@@ -3626,27 +3373,27 @@
         <v>2</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F39" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J39" s="12">
         <v>13</v>
@@ -3655,27 +3402,27 @@
         <v>3</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="4:14" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F40" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J40" s="12">
         <v>21</v>
@@ -3684,27 +3431,27 @@
         <v>2</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F41" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J41" s="12">
         <v>5</v>
@@ -3713,27 +3460,27 @@
         <v>3</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F42" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J42" s="12">
         <v>3</v>
@@ -3742,27 +3489,27 @@
         <v>3</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F43" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J43" s="12">
         <v>21</v>
@@ -3771,27 +3518,27 @@
         <v>3</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F44" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J44" s="12">
         <v>8</v>
@@ -3800,27 +3547,27 @@
         <v>3</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="4:14" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F45" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J45" s="12">
         <v>13</v>
@@ -3829,27 +3576,27 @@
         <v>3</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F46" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J46" s="12">
         <v>8</v>
@@ -3858,27 +3605,27 @@
         <v>3</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F47" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J47" s="12">
         <v>21</v>
@@ -3887,27 +3634,27 @@
         <v>3</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F48" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J48" s="12">
         <v>21</v>
@@ -3916,27 +3663,27 @@
         <v>3</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="6:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="6:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J49" s="12">
         <v>13</v>
@@ -3945,27 +3692,27 @@
         <v>3</v>
       </c>
       <c r="L49" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="6:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M49" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="6:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F50" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="G50" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J50" s="12">
         <v>13</v>
@@ -3974,27 +3721,27 @@
         <v>3</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="6:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="6:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F51" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>34</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J51" s="12">
         <v>8</v>
@@ -4003,16 +3750,16 @@
         <v>3</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="17"/>
@@ -4023,7 +3770,7 @@
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
@@ -4034,7 +3781,7 @@
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
@@ -4045,7 +3792,7 @@
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
@@ -4056,7 +3803,7 @@
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="17"/>
@@ -4067,7 +3814,7 @@
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
@@ -4078,7 +3825,7 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
@@ -4089,7 +3836,7 @@
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
@@ -4100,7 +3847,7 @@
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="17"/>
@@ -4111,7 +3858,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
@@ -4122,7 +3869,7 @@
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
@@ -4133,7 +3880,7 @@
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
     </row>
-    <row r="63" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
@@ -4144,7 +3891,7 @@
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
@@ -4155,7 +3902,7 @@
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
@@ -4166,7 +3913,7 @@
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
     </row>
-    <row r="66" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="17"/>
@@ -4177,7 +3924,7 @@
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
     </row>
-    <row r="67" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
@@ -4188,7 +3935,7 @@
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
     </row>
-    <row r="68" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
@@ -4199,7 +3946,7 @@
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
     </row>
-    <row r="69" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
@@ -4210,7 +3957,7 @@
       <c r="M69" s="18"/>
       <c r="N69" s="18"/>
     </row>
-    <row r="70" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
@@ -4221,7 +3968,7 @@
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
     </row>
-    <row r="71" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
@@ -4232,7 +3979,7 @@
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
     </row>
-    <row r="72" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
@@ -4243,7 +3990,7 @@
       <c r="M72" s="18"/>
       <c r="N72" s="18"/>
     </row>
-    <row r="73" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="17"/>
@@ -4254,7 +4001,7 @@
       <c r="M73" s="18"/>
       <c r="N73" s="18"/>
     </row>
-    <row r="74" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="17"/>
@@ -4265,7 +4012,7 @@
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
@@ -4276,7 +4023,7 @@
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
     </row>
-    <row r="76" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
@@ -4287,7 +4034,7 @@
       <c r="M76" s="18"/>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
@@ -4298,7 +4045,7 @@
       <c r="M77" s="18"/>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
@@ -4309,7 +4056,7 @@
       <c r="M78" s="18"/>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
@@ -4320,7 +4067,7 @@
       <c r="M79" s="18"/>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="17"/>
@@ -4331,7 +4078,7 @@
       <c r="M80" s="18"/>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
@@ -4342,7 +4089,7 @@
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
@@ -4353,7 +4100,7 @@
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="17"/>
@@ -4364,7 +4111,7 @@
       <c r="M83" s="18"/>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
@@ -4375,7 +4122,7 @@
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
@@ -4386,7 +4133,7 @@
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="17"/>
@@ -4397,7 +4144,7 @@
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
       <c r="H87" s="17"/>
@@ -4408,7 +4155,7 @@
       <c r="M87" s="18"/>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="17"/>
@@ -4419,7 +4166,7 @@
       <c r="M88" s="18"/>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
@@ -4430,7 +4177,7 @@
       <c r="M89" s="18"/>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="17"/>
@@ -4441,7 +4188,7 @@
       <c r="M90" s="18"/>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="17"/>
@@ -4452,7 +4199,7 @@
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="17"/>
@@ -4463,7 +4210,7 @@
       <c r="M92" s="18"/>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="17"/>
@@ -4474,7 +4221,7 @@
       <c r="M93" s="18"/>
       <c r="N93" s="18"/>
     </row>
-    <row r="94" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="17"/>
@@ -4485,7 +4232,7 @@
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="17"/>
@@ -4496,7 +4243,7 @@
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="17"/>
@@ -4507,7 +4254,7 @@
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="17"/>
@@ -4518,7 +4265,7 @@
       <c r="M97" s="18"/>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="17"/>
@@ -4529,7 +4276,7 @@
       <c r="M98" s="18"/>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="17"/>
@@ -4540,7 +4287,7 @@
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="17"/>
@@ -4551,7 +4298,7 @@
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="17"/>
@@ -4562,7 +4309,7 @@
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
       <c r="H102" s="17"/>
@@ -4573,7 +4320,7 @@
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="17"/>
@@ -4584,7 +4331,7 @@
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="17"/>
@@ -4595,7 +4342,7 @@
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
     </row>
-    <row r="105" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
       <c r="H105" s="17"/>
@@ -4606,7 +4353,7 @@
       <c r="M105" s="18"/>
       <c r="N105" s="18"/>
     </row>
-    <row r="106" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
       <c r="H106" s="17"/>
@@ -4617,7 +4364,7 @@
       <c r="M106" s="18"/>
       <c r="N106" s="18"/>
     </row>
-    <row r="107" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
       <c r="H107" s="17"/>
@@ -4628,7 +4375,7 @@
       <c r="M107" s="18"/>
       <c r="N107" s="18"/>
     </row>
-    <row r="108" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
       <c r="H108" s="17"/>
@@ -4639,7 +4386,7 @@
       <c r="M108" s="18"/>
       <c r="N108" s="18"/>
     </row>
-    <row r="109" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
       <c r="H109" s="17"/>
@@ -4650,7 +4397,7 @@
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
     </row>
-    <row r="110" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
       <c r="H110" s="17"/>
@@ -4661,7 +4408,7 @@
       <c r="M110" s="18"/>
       <c r="N110" s="18"/>
     </row>
-    <row r="111" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
       <c r="H111" s="17"/>
@@ -4672,7 +4419,7 @@
       <c r="M111" s="18"/>
       <c r="N111" s="18"/>
     </row>
-    <row r="112" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
       <c r="H112" s="17"/>
@@ -4683,7 +4430,7 @@
       <c r="M112" s="18"/>
       <c r="N112" s="18"/>
     </row>
-    <row r="113" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
       <c r="H113" s="17"/>
@@ -4694,7 +4441,7 @@
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
       <c r="H114" s="17"/>
@@ -4705,7 +4452,7 @@
       <c r="M114" s="18"/>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
       <c r="H115" s="17"/>
@@ -4716,7 +4463,7 @@
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
       <c r="H116" s="17"/>
@@ -4727,7 +4474,7 @@
       <c r="M116" s="18"/>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
       <c r="H117" s="17"/>
@@ -4738,7 +4485,7 @@
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
       <c r="H118" s="17"/>
@@ -4749,7 +4496,7 @@
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
       <c r="H119" s="17"/>
@@ -4760,7 +4507,7 @@
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
     </row>
-    <row r="120" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
       <c r="H120" s="17"/>
@@ -4771,7 +4518,7 @@
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
     </row>
-    <row r="121" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
       <c r="H121" s="17"/>
@@ -4782,7 +4529,7 @@
       <c r="M121" s="18"/>
       <c r="N121" s="18"/>
     </row>
-    <row r="122" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
       <c r="H122" s="17"/>
@@ -4793,7 +4540,7 @@
       <c r="M122" s="18"/>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
       <c r="H123" s="17"/>
@@ -4804,7 +4551,7 @@
       <c r="M123" s="18"/>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
       <c r="H124" s="17"/>
@@ -4815,7 +4562,7 @@
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
     </row>
-    <row r="125" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
       <c r="H125" s="17"/>
@@ -4826,7 +4573,7 @@
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
     </row>
-    <row r="126" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
       <c r="H126" s="17"/>
@@ -4837,7 +4584,7 @@
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
       <c r="H127" s="17"/>
@@ -4848,7 +4595,7 @@
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
     </row>
-    <row r="128" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
       <c r="H128" s="17"/>
@@ -4859,7 +4606,7 @@
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
     </row>
-    <row r="129" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
       <c r="H129" s="17"/>
@@ -4870,7 +4617,7 @@
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
     </row>
-    <row r="130" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
       <c r="H130" s="17"/>
@@ -4881,7 +4628,7 @@
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
     </row>
-    <row r="131" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
       <c r="H131" s="17"/>
@@ -4892,7 +4639,7 @@
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
     </row>
-    <row r="132" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
       <c r="H132" s="17"/>
@@ -4903,7 +4650,7 @@
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
     </row>
-    <row r="133" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
       <c r="H133" s="17"/>
@@ -4914,7 +4661,7 @@
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
     </row>
-    <row r="134" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
       <c r="H134" s="17"/>
@@ -4925,7 +4672,7 @@
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
     </row>
-    <row r="135" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F135" s="16"/>
       <c r="G135" s="16"/>
       <c r="H135" s="17"/>
@@ -4936,7 +4683,7 @@
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
     </row>
-    <row r="136" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
       <c r="H136" s="17"/>
@@ -4947,7 +4694,7 @@
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
     </row>
-    <row r="137" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
       <c r="H137" s="17"/>
@@ -4958,7 +4705,7 @@
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
     </row>
-    <row r="138" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
       <c r="H138" s="17"/>
@@ -4969,7 +4716,7 @@
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
     </row>
-    <row r="139" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F139" s="16"/>
       <c r="G139" s="16"/>
       <c r="H139" s="17"/>
@@ -4980,7 +4727,7 @@
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
     </row>
-    <row r="140" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
       <c r="H140" s="17"/>
@@ -4991,7 +4738,7 @@
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
     </row>
-    <row r="141" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
       <c r="H141" s="17"/>
@@ -5002,7 +4749,7 @@
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
     </row>
-    <row r="142" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
       <c r="H142" s="17"/>
@@ -5013,7 +4760,7 @@
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
     </row>
-    <row r="143" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
       <c r="H143" s="17"/>
@@ -5024,7 +4771,7 @@
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
     </row>
-    <row r="144" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
       <c r="H144" s="17"/>
@@ -5035,7 +4782,7 @@
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
     </row>
-    <row r="145" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
       <c r="H145" s="17"/>
@@ -5046,7 +4793,7 @@
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
     </row>
-    <row r="146" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
       <c r="H146" s="17"/>
@@ -5057,7 +4804,7 @@
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
     </row>
-    <row r="147" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
       <c r="H147" s="17"/>
@@ -5068,7 +4815,7 @@
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
     </row>
-    <row r="148" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
       <c r="H148" s="17"/>
@@ -5079,7 +4826,7 @@
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
     </row>
-    <row r="149" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F149" s="16"/>
       <c r="G149" s="16"/>
       <c r="H149" s="17"/>
@@ -5090,7 +4837,7 @@
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
     </row>
-    <row r="150" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
       <c r="H150" s="17"/>
@@ -5101,7 +4848,7 @@
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
     </row>
-    <row r="151" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
       <c r="H151" s="17"/>
@@ -5112,67 +4859,59 @@
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
     </row>
-    <row r="152" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <autoFilter ref="F4:N51"/>
   <mergeCells count="1">
     <mergeCell ref="F2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1 H3:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Desejável">
+  <conditionalFormatting sqref="H1">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="11" priority="20" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H1048576">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Desejável">
+      <formula>NOT(ISERROR(SEARCH("Desejável",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Importante">
+      <formula>NOT(ISERROR(SEARCH("Importante",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Essencial">
+      <formula>NOT(ISERROR(SEARCH("Essencial",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4:N4">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Desejável">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="PENDENTE">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="PENDENTE">
       <formula>NOT(ISERROR(SEARCH("PENDENTE",M1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Desejável">
-      <formula>NOT(ISERROR(SEARCH("Desejável",H27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Importante">
-      <formula>NOT(ISERROR(SEARCH("Importante",H27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Essencial">
-      <formula>NOT(ISERROR(SEARCH("Essencial",H27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T10:T11">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="PENDENTE">
+  <conditionalFormatting sqref="T10:U11">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PENDENTE">
       <formula>NOT(ISERROR(SEARCH("PENDENTE",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",T10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U10:U11">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="PENDENTE">
-      <formula>NOT(ISERROR(SEARCH("PENDENTE",U10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",U10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5182,680 +4921,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I241"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="50.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="55.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="24" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="9"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="9"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="9"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="16"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="16"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="16"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="16"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="16"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="16"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="16"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="16"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="16"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="16"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="16"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="16"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="16"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="18"/>
-    </row>
-    <row r="38" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="16"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="16"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="16"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-    </row>
-    <row r="42" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-    </row>
-    <row r="43" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-    </row>
-    <row r="45" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-    </row>
-    <row r="46" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-    </row>
-    <row r="48" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-    </row>
-    <row r="49" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-    </row>
-    <row r="50" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-    </row>
-    <row r="51" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-    </row>
-    <row r="52" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-    </row>
-    <row r="53" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-    </row>
-    <row r="54" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-    </row>
-    <row r="55" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-    </row>
-    <row r="56" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-    </row>
-    <row r="57" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-    </row>
-    <row r="58" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-    </row>
-    <row r="59" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-    </row>
-    <row r="60" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-    </row>
-    <row r="61" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-    </row>
-    <row r="62" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="2:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="39.75" customHeight="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Desejável">
-      <formula>NOT(ISERROR(SEARCH("Desejável",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Importante">
-      <formula>NOT(ISERROR(SEARCH("Importante",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Essencial">
-      <formula>NOT(ISERROR(SEARCH("Essencial",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
